--- a/Experiments/Measurements/Two Banners Side by Side/V path/Antenna_3/Transformed_Coordinates.xlsx
+++ b/Experiments/Measurements/Two Banners Side by Side/V path/Antenna_3/Transformed_Coordinates.xlsx
@@ -1342,7 +1342,7 @@
         <v>137.7943873408844</v>
       </c>
       <c r="H30" t="n">
-        <v>47.33688474985779</v>
+        <v>47.33688474985777</v>
       </c>
     </row>
     <row r="31">
@@ -1522,7 +1522,7 @@
         <v>157.7343533340159</v>
       </c>
       <c r="H36" t="n">
-        <v>49.0150292862243</v>
+        <v>49.01502928622429</v>
       </c>
     </row>
     <row r="37">
@@ -2029,10 +2029,10 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>83.52295086421545</v>
+        <v>83.5229508642153</v>
       </c>
       <c r="H53" t="n">
-        <v>159.9445649211833</v>
+        <v>159.9445649211831</v>
       </c>
     </row>
     <row r="54">
@@ -2059,10 +2059,10 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>103.7929440618705</v>
+        <v>103.7929440618708</v>
       </c>
       <c r="H54" t="n">
-        <v>154.0207442740886</v>
+        <v>154.0207442740888</v>
       </c>
     </row>
     <row r="55">
@@ -2089,7 +2089,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>-56.12212621206643</v>
+        <v>-56.12212621206621</v>
       </c>
       <c r="H55" t="n">
         <v>141.2670934116531</v>
@@ -2205,10 +2205,10 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>193.0184910652282</v>
+        <v>193.018491065228</v>
       </c>
       <c r="H59" t="n">
-        <v>79.34762261968606</v>
+        <v>79.34762261968602</v>
       </c>
     </row>
     <row r="60">
@@ -2235,10 +2235,10 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>179.667692557624</v>
+        <v>179.6676925576243</v>
       </c>
       <c r="H60" t="n">
-        <v>93.29352676647558</v>
+        <v>93.29352676647576</v>
       </c>
     </row>
     <row r="61">
@@ -2265,10 +2265,10 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>99.51953451545262</v>
+        <v>99.5195345154528</v>
       </c>
       <c r="H61" t="n">
-        <v>100.6584892451243</v>
+        <v>100.6584892451244</v>
       </c>
     </row>
     <row r="62">
@@ -2295,10 +2295,10 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>126.5417401414724</v>
+        <v>126.5417401414726</v>
       </c>
       <c r="H62" t="n">
-        <v>66.28081486001568</v>
+        <v>66.28081486001574</v>
       </c>
     </row>
     <row r="63">
@@ -2385,10 +2385,10 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>162.6568932096998</v>
+        <v>162.6568932096996</v>
       </c>
       <c r="H65" t="n">
-        <v>38.9809957613401</v>
+        <v>38.98099576134003</v>
       </c>
     </row>
     <row r="66">
@@ -2415,10 +2415,10 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>192.6944366744208</v>
+        <v>192.6944366744212</v>
       </c>
       <c r="H66" t="n">
-        <v>36.53704933630888</v>
+        <v>36.53704933630905</v>
       </c>
     </row>
     <row r="67">
@@ -2445,10 +2445,10 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>156.6001509878793</v>
+        <v>156.6001509878795</v>
       </c>
       <c r="H67" t="n">
-        <v>40.41659588157304</v>
+        <v>40.41659588157314</v>
       </c>
     </row>
     <row r="68">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>167.6539463438792</v>
+        <v>167.6539463438794</v>
       </c>
       <c r="H68" t="n">
-        <v>42.0137958201964</v>
+        <v>42.01379582019652</v>
       </c>
     </row>
     <row r="69">
@@ -2565,10 +2565,10 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>227.201632322205</v>
+        <v>227.2016323222048</v>
       </c>
       <c r="H71" t="n">
-        <v>35.84865967068384</v>
+        <v>35.84865967068378</v>
       </c>
     </row>
     <row r="72">
@@ -2595,10 +2595,10 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>216.3044261597337</v>
+        <v>216.3044261597341</v>
       </c>
       <c r="H72" t="n">
-        <v>45.70526891813406</v>
+        <v>45.70526891813426</v>
       </c>
     </row>
     <row r="73">
@@ -2625,10 +2625,10 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>157.300113819942</v>
+        <v>157.3001138199422</v>
       </c>
       <c r="H73" t="n">
-        <v>44.65355587300566</v>
+        <v>44.65355587300574</v>
       </c>
     </row>
     <row r="74">
@@ -2658,7 +2658,7 @@
         <v>151.9945761896496</v>
       </c>
       <c r="H74" t="n">
-        <v>46.77383094358525</v>
+        <v>46.77383094358522</v>
       </c>
     </row>
     <row r="75">
@@ -2685,10 +2685,10 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>95.77128506169353</v>
+        <v>95.77128506169333</v>
       </c>
       <c r="H75" t="n">
-        <v>66.56743273703694</v>
+        <v>66.56743273703687</v>
       </c>
     </row>
     <row r="76">
@@ -2715,10 +2715,10 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>236.4329686120145</v>
+        <v>236.4329686120149</v>
       </c>
       <c r="H76" t="n">
-        <v>48.40580591152741</v>
+        <v>48.40580591152751</v>
       </c>
     </row>
     <row r="77">
@@ -2775,7 +2775,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>71.17194771086507</v>
+        <v>71.17194771086484</v>
       </c>
       <c r="H78" t="n">
         <v>120.4862291027854</v>
@@ -2805,10 +2805,10 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>8.499263162587827</v>
+        <v>8.499263162587493</v>
       </c>
       <c r="H79" t="n">
-        <v>125.2460000403008</v>
+        <v>125.2460000403007</v>
       </c>
     </row>
     <row r="80">
@@ -2865,10 +2865,10 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>180.6403843511334</v>
+        <v>180.6403843511336</v>
       </c>
       <c r="H81" t="n">
-        <v>103.5053969394798</v>
+        <v>103.5053969394799</v>
       </c>
     </row>
     <row r="82">
@@ -2895,10 +2895,10 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>133.294734077027</v>
+        <v>133.2947340770268</v>
       </c>
       <c r="H82" t="n">
-        <v>61.62165611882945</v>
+        <v>61.62165611882936</v>
       </c>
     </row>
     <row r="83">
@@ -2925,10 +2925,10 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>53.38579036021662</v>
+        <v>53.38579036021647</v>
       </c>
       <c r="H83" t="n">
-        <v>125.1169794890291</v>
+        <v>125.116979489029</v>
       </c>
     </row>
     <row r="84">
@@ -2955,10 +2955,10 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>170.7227817216035</v>
+        <v>170.7227817216037</v>
       </c>
       <c r="H84" t="n">
-        <v>92.41014062289716</v>
+        <v>92.41014062289722</v>
       </c>
     </row>
     <row r="85">
@@ -2985,7 +2985,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>64.06005025871583</v>
+        <v>64.06005025871629</v>
       </c>
       <c r="H85" t="n">
         <v>118.8355773685819</v>
@@ -3045,10 +3045,10 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>152.491537310995</v>
+        <v>152.4915373109948</v>
       </c>
       <c r="H87" t="n">
-        <v>70.45399767903088</v>
+        <v>70.45399767903083</v>
       </c>
     </row>
     <row r="88">
@@ -3075,10 +3075,10 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>157.4953114585887</v>
+        <v>157.4953114585885</v>
       </c>
       <c r="H88" t="n">
-        <v>57.33621252464453</v>
+        <v>57.33621252464448</v>
       </c>
     </row>
     <row r="89">
@@ -3105,10 +3105,10 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>200.7236166421216</v>
+        <v>200.7236166421218</v>
       </c>
       <c r="H89" t="n">
-        <v>44.42899797482881</v>
+        <v>44.42899797482887</v>
       </c>
     </row>
     <row r="90">
@@ -3135,10 +3135,10 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>192.3771660136543</v>
+        <v>192.3771660136541</v>
       </c>
       <c r="H90" t="n">
-        <v>82.33373518603742</v>
+        <v>82.33373518603732</v>
       </c>
     </row>
     <row r="91">
@@ -3165,10 +3165,10 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>151.6033704063827</v>
+        <v>151.6033704063831</v>
       </c>
       <c r="H91" t="n">
-        <v>70.89882514232129</v>
+        <v>70.89882514232136</v>
       </c>
     </row>
     <row r="92">
@@ -3195,10 +3195,10 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>194.7967460322388</v>
+        <v>194.7967460322392</v>
       </c>
       <c r="H92" t="n">
-        <v>42.8603111206177</v>
+        <v>42.86031112061783</v>
       </c>
     </row>
     <row r="93">
@@ -3225,10 +3225,10 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>134.8496081590458</v>
+        <v>134.849608159046</v>
       </c>
       <c r="H93" t="n">
-        <v>62.16752675989667</v>
+        <v>62.16752675989673</v>
       </c>
     </row>
     <row r="94">
@@ -3255,10 +3255,10 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>132.2436741498118</v>
+        <v>132.2436741498115</v>
       </c>
       <c r="H94" t="n">
-        <v>41.37588226278161</v>
+        <v>41.37588226278147</v>
       </c>
     </row>
     <row r="95">
@@ -3285,10 +3285,10 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>172.1969222346034</v>
+        <v>172.1969222346038</v>
       </c>
       <c r="H95" t="n">
-        <v>40.63585728051561</v>
+        <v>40.6358572805158</v>
       </c>
     </row>
     <row r="96">
@@ -3345,10 +3345,10 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>153.959182760403</v>
+        <v>153.9591827604028</v>
       </c>
       <c r="H97" t="n">
-        <v>49.33886768380999</v>
+        <v>49.33886768380988</v>
       </c>
     </row>
     <row r="98">
@@ -3375,10 +3375,10 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>127.0281581261509</v>
+        <v>127.0281581261507</v>
       </c>
       <c r="H98" t="n">
-        <v>43.14689613312137</v>
+        <v>43.14689613312131</v>
       </c>
     </row>
     <row r="99">
@@ -3405,10 +3405,10 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>201.4296100671639</v>
+        <v>201.4296100671643</v>
       </c>
       <c r="H99" t="n">
-        <v>26.42913957906403</v>
+        <v>26.42913957906422</v>
       </c>
     </row>
     <row r="100">
@@ -3465,10 +3465,10 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>178.4824121849344</v>
+        <v>178.4824121849346</v>
       </c>
       <c r="H101" t="n">
-        <v>29.84027954106098</v>
+        <v>29.84027954106107</v>
       </c>
     </row>
   </sheetData>
